--- a/intermediateTables/PreCATFishesOrigin.xlsx
+++ b/intermediateTables/PreCATFishesOrigin.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DocsHDD\FGame\中鱼\StatDemo\intermediateTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD8CD2B-3B41-4DAC-BFD8-CC3DA5BC5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957C13AE-08C8-45F7-A767-B15213EECD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1200" windowWidth="41070" windowHeight="19095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鱼种设计表" sheetId="1" r:id="rId1"/>
-    <sheet name="中英文和LW参数" sheetId="8" r:id="rId2"/>
-    <sheet name="觅食水层" sheetId="7" r:id="rId3"/>
-    <sheet name="遮蔽结构" sheetId="6" r:id="rId4"/>
-    <sheet name="等阶-水温阈值" sheetId="5" r:id="rId5"/>
-    <sheet name="常数" sheetId="4" r:id="rId6"/>
-    <sheet name="水温" sheetId="3" r:id="rId7"/>
-    <sheet name="品质字典" sheetId="2" r:id="rId8"/>
+    <sheet name="气压敏感度" sheetId="9" r:id="rId2"/>
+    <sheet name="中英文和LW参数" sheetId="8" r:id="rId3"/>
+    <sheet name="觅食水层" sheetId="7" r:id="rId4"/>
+    <sheet name="遮蔽结构" sheetId="6" r:id="rId5"/>
+    <sheet name="等阶-水温阈值" sheetId="5" r:id="rId6"/>
+    <sheet name="常数" sheetId="4" r:id="rId7"/>
+    <sheet name="水温" sheetId="3" r:id="rId8"/>
+    <sheet name="品质字典" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="281">
   <si>
     <t>鱼种</t>
   </si>
@@ -839,6 +840,146 @@
   </si>
   <si>
     <t>|温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>敏感度系数</t>
+  </si>
+  <si>
+    <t>参考来源</t>
+  </si>
+  <si>
+    <t>1.0 Strike and Catch</t>
+  </si>
+  <si>
+    <t>Strike &amp; Catch 钓鱼指南</t>
+  </si>
+  <si>
+    <t>0.8 Fishkis</t>
+  </si>
+  <si>
+    <t>FishKis 通用研究</t>
+  </si>
+  <si>
+    <t>0.7 Saltwater and Freshwater Fishing Videos</t>
+  </si>
+  <si>
+    <t>In The Spread 博客</t>
+  </si>
+  <si>
+    <t>0.8 Saltwater and Freshwater Fishing Videos</t>
+  </si>
+  <si>
+    <t>0.5 In-Fisherman</t>
+  </si>
+  <si>
+    <t>In‑Fisherman 研究</t>
+  </si>
+  <si>
+    <t>0.9 Fishkis</t>
+  </si>
+  <si>
+    <t>0.7 Academia</t>
+  </si>
+  <si>
+    <t>Rock Bass 声学研究</t>
+  </si>
+  <si>
+    <t>0.4 Saltwater and Freshwater Fishing Videos</t>
+  </si>
+  <si>
+    <t>0.6 Saltwater and Freshwater Fishing Videos</t>
+  </si>
+  <si>
+    <t>0.3 Saltwater and Freshwater Fishing Videos</t>
+  </si>
+  <si>
+    <t>Channel_Catfish (重复)</t>
+  </si>
+  <si>
+    <t>Largemouth_Bass (重复)</t>
+  </si>
+  <si>
+    <t>Black_Crappie (重复)</t>
+  </si>
+  <si>
+    <t>0.4 Bemidji State University - Bemidji, MN</t>
+  </si>
+  <si>
+    <t>Bemidji State 大学研究</t>
+  </si>
+  <si>
+    <t>0.6 Picture Fish</t>
+  </si>
+  <si>
+    <t>Picture Fish AI 资料</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>Catch</t>
+  </si>
+  <si>
+    <t>Fishkis</t>
+  </si>
+  <si>
+    <t>Saltwater</t>
+  </si>
+  <si>
+    <t>Freshwater</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>In-Fisherman</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>Bemidji</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Bemidji,</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>1、2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -885,13 +1026,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -957,6 +1091,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1066,8 +1208,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1107,7 +1250,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1116,52 +1258,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1460,7 +1606,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1469,7 +1615,7 @@
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="41" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="9" style="6"/>
     <col min="18" max="18" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="13" style="6" customWidth="1"/>
@@ -1813,7 +1959,9 @@
       <c r="BD2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE2" s="15"/>
+      <c r="BE2" s="15">
+        <v>1</v>
+      </c>
       <c r="BF2" s="3" t="s">
         <v>115</v>
       </c>
@@ -1956,7 +2104,9 @@
       <c r="BD3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE3" s="15"/>
+      <c r="BE3" s="15">
+        <v>0.8</v>
+      </c>
       <c r="BF3" s="3" t="s">
         <v>115</v>
       </c>
@@ -2097,7 +2247,9 @@
       <c r="BD4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE4" s="15"/>
+      <c r="BE4" s="15">
+        <v>0.7</v>
+      </c>
       <c r="BF4" s="3" t="s">
         <v>115</v>
       </c>
@@ -2129,7 +2281,9 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I5" s="15">
         <v>1</v>
       </c>
@@ -2236,7 +2390,9 @@
       <c r="BD5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE5" s="15"/>
+      <c r="BE5" s="15">
+        <v>0.8</v>
+      </c>
       <c r="BF5" s="3" t="s">
         <v>115</v>
       </c>
@@ -2262,13 +2418,15 @@
       <c r="C6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I6" s="15">
         <v>1</v>
       </c>
@@ -2375,7 +2533,9 @@
       <c r="BD6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE6" s="15"/>
+      <c r="BE6" s="15">
+        <v>0.8</v>
+      </c>
       <c r="BF6" s="3" t="s">
         <v>115</v>
       </c>
@@ -2401,13 +2561,15 @@
       <c r="C7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I7" s="15">
         <v>1</v>
       </c>
@@ -2514,7 +2676,9 @@
       <c r="BD7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE7" s="15"/>
+      <c r="BE7" s="15">
+        <v>0.7</v>
+      </c>
       <c r="BF7" s="3" t="s">
         <v>115</v>
       </c>
@@ -2540,15 +2704,17 @@
       <c r="C8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>2.5</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I8" s="15">
         <v>1</v>
       </c>
@@ -2655,7 +2821,9 @@
       <c r="BD8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE8" s="15"/>
+      <c r="BE8" s="15">
+        <v>0.5</v>
+      </c>
       <c r="BF8" s="3" t="s">
         <v>115</v>
       </c>
@@ -2681,13 +2849,15 @@
       <c r="C9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>2</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I9" s="15">
         <v>1</v>
       </c>
@@ -2697,10 +2867,10 @@
       <c r="M9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>18</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="19">
         <v>26</v>
       </c>
       <c r="P9" s="16">
@@ -2758,7 +2928,7 @@
       <c r="AF9" s="15">
         <v>0</v>
       </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AG9" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH9" s="16">
@@ -2780,21 +2950,23 @@
       <c r="AP9" s="14"/>
       <c r="AQ9" s="14"/>
       <c r="AR9" s="14"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="19"/>
       <c r="BD9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE9" s="14"/>
+      <c r="BE9" s="14">
+        <v>0.9</v>
+      </c>
       <c r="BF9" s="3" t="s">
         <v>115</v>
       </c>
@@ -2820,13 +2992,15 @@
       <c r="C10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="15"/>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I10" s="15">
         <v>1</v>
       </c>
@@ -2933,7 +3107,9 @@
       <c r="BD10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE10" s="15"/>
+      <c r="BE10" s="15">
+        <v>0.7</v>
+      </c>
       <c r="BF10" s="3" t="s">
         <v>115</v>
       </c>
@@ -2959,13 +3135,15 @@
       <c r="C11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="15"/>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I11" s="15">
         <v>1</v>
       </c>
@@ -3072,7 +3250,9 @@
       <c r="BD11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE11" s="15"/>
+      <c r="BE11" s="15">
+        <v>0.8</v>
+      </c>
       <c r="BF11" s="3" t="s">
         <v>115</v>
       </c>
@@ -3098,17 +3278,19 @@
       <c r="C12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
         <v>1.5</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I12" s="15">
         <v>1</v>
       </c>
@@ -3215,7 +3397,9 @@
       <c r="BD12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE12" s="15"/>
+      <c r="BE12" s="15">
+        <v>0.7</v>
+      </c>
       <c r="BF12" s="3" t="s">
         <v>115</v>
       </c>
@@ -3241,14 +3425,14 @@
       <c r="C13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
         <v>73</v>
       </c>
@@ -3358,7 +3542,9 @@
       <c r="BD13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE13" s="15"/>
+      <c r="BE13" s="15">
+        <v>0.7</v>
+      </c>
       <c r="BF13" s="3" t="s">
         <v>115</v>
       </c>
@@ -3381,7 +3567,7 @@
       <c r="B14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="16">
@@ -3390,22 +3576,22 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>5</v>
       </c>
       <c r="I14" s="16">
         <v>2</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>18</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <v>26</v>
       </c>
       <c r="P14" s="16">
@@ -3430,40 +3616,40 @@
       <c r="U14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V14" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="W14" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="X14" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="20">
+      <c r="V14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="W14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="X14" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="19">
         <v>0.6</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AB14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="20">
+      <c r="AB14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="19">
         <v>1</v>
       </c>
       <c r="AF14" s="15">
         <v>0</v>
       </c>
-      <c r="AG14" s="20" t="s">
+      <c r="AG14" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH14" s="16">
@@ -3478,41 +3664,43 @@
       <c r="AK14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="20"/>
-      <c r="AS14" s="20"/>
-      <c r="AT14" s="20"/>
-      <c r="AU14" s="20"/>
-      <c r="AV14" s="20"/>
-      <c r="AW14" s="20"/>
-      <c r="AX14" s="20"/>
-      <c r="AY14" s="20"/>
-      <c r="AZ14" s="20"/>
-      <c r="BA14" s="20"/>
-      <c r="BB14" s="20"/>
-      <c r="BC14" s="20"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="19"/>
       <c r="BD14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE14" s="20"/>
+      <c r="BE14" s="19">
+        <v>0.9</v>
+      </c>
       <c r="BF14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BG14" s="20"/>
-      <c r="BH14" s="20"/>
-      <c r="BI14" s="20"/>
-      <c r="BJ14" s="20"/>
-      <c r="BK14" s="20"/>
-      <c r="BL14" s="20"/>
-      <c r="BM14" s="20"/>
-      <c r="BN14" s="20"/>
-      <c r="BO14" s="20"/>
-      <c r="BP14" s="20"/>
+      <c r="BG14" s="19"/>
+      <c r="BH14" s="19"/>
+      <c r="BI14" s="19"/>
+      <c r="BJ14" s="19"/>
+      <c r="BK14" s="19"/>
+      <c r="BL14" s="19"/>
+      <c r="BM14" s="19"/>
+      <c r="BN14" s="19"/>
+      <c r="BO14" s="19"/>
+      <c r="BP14" s="19"/>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="str">
@@ -3525,12 +3713,12 @@
       <c r="C15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="15">
         <v>5</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="14">
         <v>5</v>
       </c>
@@ -3543,10 +3731,10 @@
       <c r="M15" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="19">
         <v>20</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="19">
         <v>30</v>
       </c>
       <c r="P15" s="16">
@@ -3604,7 +3792,7 @@
       <c r="AF15" s="15">
         <v>0</v>
       </c>
-      <c r="AG15" s="20" t="s">
+      <c r="AG15" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH15" s="16">
@@ -3626,21 +3814,23 @@
       <c r="AP15" s="14"/>
       <c r="AQ15" s="14"/>
       <c r="AR15" s="14"/>
-      <c r="AS15" s="20"/>
-      <c r="AT15" s="20"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="20"/>
-      <c r="AW15" s="20"/>
-      <c r="AX15" s="20"/>
-      <c r="AY15" s="20"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="20"/>
-      <c r="BB15" s="20"/>
-      <c r="BC15" s="20"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="19"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="19"/>
       <c r="BD15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE15" s="14"/>
+      <c r="BE15" s="14">
+        <v>0.4</v>
+      </c>
       <c r="BF15" s="3" t="s">
         <v>115</v>
       </c>
@@ -3666,13 +3856,15 @@
       <c r="C16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <v>4</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>280</v>
+      </c>
       <c r="I16" s="15">
         <v>2</v>
       </c>
@@ -3682,10 +3874,10 @@
       <c r="M16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="19">
         <v>20</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="19">
         <v>30</v>
       </c>
       <c r="P16" s="16">
@@ -3743,7 +3935,7 @@
       <c r="AF16" s="15">
         <v>0</v>
       </c>
-      <c r="AG16" s="20" t="s">
+      <c r="AG16" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH16" s="16">
@@ -3765,21 +3957,23 @@
       <c r="AP16" s="14"/>
       <c r="AQ16" s="14"/>
       <c r="AR16" s="14"/>
-      <c r="AS16" s="20"/>
-      <c r="AT16" s="20"/>
-      <c r="AU16" s="20"/>
-      <c r="AV16" s="20"/>
-      <c r="AW16" s="20"/>
-      <c r="AX16" s="20"/>
-      <c r="AY16" s="20"/>
-      <c r="AZ16" s="20"/>
-      <c r="BA16" s="20"/>
-      <c r="BB16" s="20"/>
-      <c r="BC16" s="20"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="19"/>
       <c r="BD16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE16" s="14"/>
+      <c r="BE16" s="14">
+        <v>0.6</v>
+      </c>
       <c r="BF16" s="3" t="s">
         <v>115</v>
       </c>
@@ -3805,13 +3999,15 @@
       <c r="C17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="15">
         <v>3</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I17" s="15">
         <v>2</v>
       </c>
@@ -3821,10 +4017,10 @@
       <c r="M17" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="19">
         <v>12</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <v>24</v>
       </c>
       <c r="P17" s="16">
@@ -3882,7 +4078,7 @@
       <c r="AF17" s="15">
         <v>0</v>
       </c>
-      <c r="AG17" s="20" t="s">
+      <c r="AG17" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH17" s="16">
@@ -3904,21 +4100,23 @@
       <c r="AP17" s="14"/>
       <c r="AQ17" s="14"/>
       <c r="AR17" s="14"/>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="20"/>
-      <c r="AX17" s="20"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="20"/>
-      <c r="BA17" s="20"/>
-      <c r="BB17" s="20"/>
-      <c r="BC17" s="20"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="19"/>
       <c r="BD17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE17" s="14"/>
+      <c r="BE17" s="14">
+        <v>0.3</v>
+      </c>
       <c r="BF17" s="3" t="s">
         <v>115</v>
       </c>
@@ -3944,13 +4142,15 @@
       <c r="C18" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="15">
         <v>2</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I18" s="15">
         <v>2</v>
       </c>
@@ -3960,10 +4160,10 @@
       <c r="M18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="19">
         <v>20</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="19">
         <v>30</v>
       </c>
       <c r="P18" s="16">
@@ -4021,7 +4221,7 @@
       <c r="AF18" s="15">
         <v>0</v>
       </c>
-      <c r="AG18" s="20" t="s">
+      <c r="AG18" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH18" s="16">
@@ -4043,21 +4243,23 @@
       <c r="AP18" s="14"/>
       <c r="AQ18" s="14"/>
       <c r="AR18" s="14"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="20"/>
-      <c r="AU18" s="20"/>
-      <c r="AV18" s="20"/>
-      <c r="AW18" s="20"/>
-      <c r="AX18" s="20"/>
-      <c r="AY18" s="20"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="20"/>
-      <c r="BC18" s="20"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="19"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="19"/>
       <c r="BD18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE18" s="14"/>
+      <c r="BE18" s="14">
+        <v>0.8</v>
+      </c>
       <c r="BF18" s="3" t="s">
         <v>115</v>
       </c>
@@ -4083,13 +4285,15 @@
       <c r="C19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="15">
         <v>2</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I19" s="15">
         <v>2</v>
       </c>
@@ -4099,10 +4303,10 @@
       <c r="M19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <v>18</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <v>26</v>
       </c>
       <c r="P19" s="16">
@@ -4160,7 +4364,7 @@
       <c r="AF19" s="15">
         <v>0</v>
       </c>
-      <c r="AG19" s="20" t="s">
+      <c r="AG19" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH19" s="16">
@@ -4182,21 +4386,23 @@
       <c r="AP19" s="14"/>
       <c r="AQ19" s="14"/>
       <c r="AR19" s="14"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="20"/>
-      <c r="BA19" s="20"/>
-      <c r="BB19" s="20"/>
-      <c r="BC19" s="20"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
       <c r="BD19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE19" s="14"/>
+      <c r="BE19" s="14">
+        <v>0.9</v>
+      </c>
       <c r="BF19" s="3" t="s">
         <v>115</v>
       </c>
@@ -4222,15 +4428,17 @@
       <c r="C20" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="15">
         <v>2</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="15">
         <v>2.5</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I20" s="15">
         <v>2</v>
       </c>
@@ -4240,10 +4448,10 @@
       <c r="M20" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <v>20</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <v>30</v>
       </c>
       <c r="P20" s="16">
@@ -4301,7 +4509,7 @@
       <c r="AF20" s="15">
         <v>0</v>
       </c>
-      <c r="AG20" s="20" t="s">
+      <c r="AG20" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH20" s="16">
@@ -4323,21 +4531,23 @@
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
       <c r="AR20" s="14"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="20"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="20"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="20"/>
-      <c r="BA20" s="20"/>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="20"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="19"/>
       <c r="BD20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE20" s="14"/>
+      <c r="BE20" s="14">
+        <v>0.5</v>
+      </c>
       <c r="BF20" s="3" t="s">
         <v>115</v>
       </c>
@@ -4369,7 +4579,9 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="I21" s="15">
         <v>2</v>
       </c>
@@ -4379,10 +4591,10 @@
       <c r="M21" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="19">
         <v>20</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="19">
         <v>30</v>
       </c>
       <c r="P21" s="16">
@@ -4440,7 +4652,7 @@
       <c r="AF21" s="15">
         <v>0</v>
       </c>
-      <c r="AG21" s="20" t="s">
+      <c r="AG21" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH21" s="16">
@@ -4462,21 +4674,23 @@
       <c r="AP21" s="14"/>
       <c r="AQ21" s="14"/>
       <c r="AR21" s="14"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="20"/>
-      <c r="BA21" s="20"/>
-      <c r="BB21" s="20"/>
-      <c r="BC21" s="20"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="19"/>
+      <c r="BA21" s="19"/>
+      <c r="BB21" s="19"/>
+      <c r="BC21" s="19"/>
       <c r="BD21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE21" s="14"/>
+      <c r="BE21" s="14">
+        <v>0.8</v>
+      </c>
       <c r="BF21" s="3" t="s">
         <v>115</v>
       </c>
@@ -4522,10 +4736,10 @@
       <c r="M22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="19">
         <v>18</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="19">
         <v>26</v>
       </c>
       <c r="P22" s="16">
@@ -4583,7 +4797,7 @@
       <c r="AF22" s="15">
         <v>0</v>
       </c>
-      <c r="AG22" s="20" t="s">
+      <c r="AG22" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH22" s="16">
@@ -4605,21 +4819,23 @@
       <c r="AP22" s="14"/>
       <c r="AQ22" s="14"/>
       <c r="AR22" s="14"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="20"/>
-      <c r="BC22" s="20"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="19"/>
       <c r="BD22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE22" s="14"/>
+      <c r="BE22" s="14">
+        <v>0.4</v>
+      </c>
       <c r="BF22" s="3" t="s">
         <v>115</v>
       </c>
@@ -4653,7 +4869,7 @@
         <v>124</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="20" t="s">
         <v>73</v>
       </c>
       <c r="I23" s="15">
@@ -4665,10 +4881,10 @@
       <c r="M23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="19">
         <v>16</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="19">
         <v>24</v>
       </c>
       <c r="P23" s="16">
@@ -4726,7 +4942,7 @@
       <c r="AF23" s="15">
         <v>0</v>
       </c>
-      <c r="AG23" s="20" t="s">
+      <c r="AG23" s="19" t="s">
         <v>114</v>
       </c>
       <c r="AH23" s="16">
@@ -4748,21 +4964,23 @@
       <c r="AP23" s="14"/>
       <c r="AQ23" s="14"/>
       <c r="AR23" s="14"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="20"/>
-      <c r="AW23" s="20"/>
-      <c r="AX23" s="20"/>
-      <c r="AY23" s="20"/>
-      <c r="AZ23" s="20"/>
-      <c r="BA23" s="20"/>
-      <c r="BB23" s="20"/>
-      <c r="BC23" s="20"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="19"/>
       <c r="BD23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BE23" s="14"/>
+      <c r="BE23" s="14">
+        <v>0.6</v>
+      </c>
       <c r="BF23" s="3" t="s">
         <v>115</v>
       </c>
@@ -4790,6 +5008,664 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404B850B-7A30-45F6-B971-B02555B67C61}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="64.375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5">
+        <v>0.8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>0.7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13">
+        <v>0.7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14">
+        <v>0.9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15">
+        <v>0.4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" t="s">
+        <v>262</v>
+      </c>
+      <c r="I15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" t="s">
+        <v>262</v>
+      </c>
+      <c r="I16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18">
+        <v>0.8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I18" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19">
+        <v>0.9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21">
+        <v>0.8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" t="s">
+        <v>267</v>
+      </c>
+      <c r="K21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22">
+        <v>0.4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J22" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23">
+        <v>0.6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://strikeandcatch.com/best-weather-for-tench-fishing/?utm_source=chatgpt.com" xr:uid="{6BC87D43-8A01-4A19-A3A8-A436DABB0F39}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://fishkis.com/how-does-barometric-pressure-affect-fishing/?utm_source=chatgpt.com" xr:uid="{6E61FE65-0989-4BEE-B2FA-D2006F4DE519}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{530AEAD5-F9CB-4DC2-BCE9-6475782F71C2}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{EA895E8B-C686-45ED-9EFF-DFC06E591128}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{F4E5AD02-CF95-4111-AE67-FFCECAB6A46F}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{8D9EB283-8CCB-4673-A6D8-54D5EE0974A7}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.in-fisherman.com/editorial/barometric-pressure-and-bass/153689?utm_source=chatgpt.com" xr:uid="{E79DBCE9-EC57-45A8-A5DE-3A961259A8B0}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://fishkis.com/how-does-barometric-pressure-affect-fishing/?utm_source=chatgpt.com" xr:uid="{E94EACED-55B9-4062-89C7-DB1495AB7DC8}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{4D646C1A-3315-4DF9-B0A8-0CADC81D8AC7}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://fishkis.com/how-does-barometric-pressure-affect-fishing/?utm_source=chatgpt.com" xr:uid="{7409B81B-3E2D-459E-8E5F-59D3A6AD54B3}"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://www.academia.edu/13849038/Effects_of_incremental_increases_in_silt_load_on_the_cardiovascular_performance_of_riverine_and_lacustrine_rock_bass_Ambloplites_rupestris?utm_source=chatgpt.com" xr:uid="{9387E430-2B90-43F1-9861-3582CF6A068C}"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{8B4E5A39-7AE8-4032-BBEA-CD058186C72E}"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://fishkis.com/how-does-barometric-pressure-affect-fishing/?utm_source=chatgpt.com" xr:uid="{11C180E9-E759-4482-AAFB-D70C5787C57A}"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{3371885E-9FD3-4613-94F8-C0D9C878A82B}"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{4910FB50-A025-4E09-A11A-3294B182E735}"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{D5CADF7A-7821-4354-B808-3A2BBB23AB2C}"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{CB639F7D-3E1E-439D-9248-5E6E60E7C21B}"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://fishkis.com/how-does-barometric-pressure-affect-fishing/?utm_source=chatgpt.com" xr:uid="{962B8E0A-8DE2-4F09-951A-B3D7FAC29D47}"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://www.in-fisherman.com/editorial/barometric-pressure-and-bass/153689?utm_source=chatgpt.com" xr:uid="{0AFF264B-179F-4595-AC3E-E3A9C1CC0746}"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://inthespread.com/blog/weather-patterns-fishing-how-barometric-pressure-affects-fish-behavior-346?utm_source=chatgpt.com" xr:uid="{143B6656-55BB-41ED-BC85-EE35C504421E}"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://www.bemidjistate.edu/directory/wp-content/uploads/sites/16/2023/02/2014-VanderWeyst-D.-The-effect-of-barometric-pressure-on-feeding-activity-of-yellow-perch..pdf?utm_source=chatgpt.com" xr:uid="{F5615A96-3EB3-4FE8-8BE6-4946AD43141D}"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://picturefishai.com/wiki/Ambloplites_rupestris.html?utm_source=chatgpt.com" xr:uid="{5D82FB08-E5E4-4A1D-85A1-F94B4929A5CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662D3F43-4BA3-41B8-992B-9DA5624B5380}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
@@ -4805,78 +5681,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <v>1.24E-2</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <v>3.11</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="22">
         <v>1.24E-2</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="22">
         <v>3.11</v>
       </c>
       <c r="P2">
@@ -4889,40 +5765,40 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>3.05</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="22">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="22">
         <v>3.05</v>
       </c>
       <c r="P3">
@@ -4935,40 +5811,40 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>3.28</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="22">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="22">
         <v>3.28</v>
       </c>
       <c r="P4">
@@ -4981,40 +5857,40 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>3.24</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="22">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="22">
         <v>3.24</v>
       </c>
       <c r="P5">
@@ -5027,40 +5903,40 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>3.11</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="22">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="22">
         <v>3.11</v>
       </c>
       <c r="P6">
@@ -5073,40 +5949,40 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>3.29</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="22">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="22">
         <v>3.29</v>
       </c>
       <c r="P7">
@@ -5119,40 +5995,40 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>3.14</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="22">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="22">
         <v>3.14</v>
       </c>
       <c r="P8">
@@ -5165,40 +6041,40 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>3.28</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="22">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="22">
         <v>3.28</v>
       </c>
       <c r="P9">
@@ -5211,40 +6087,40 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>3.2</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="22">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="22">
         <v>3.2</v>
       </c>
       <c r="P10">
@@ -5257,40 +6133,40 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>1.01E-2</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>3.01</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="22">
         <v>1.01E-2</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="22">
         <v>3.01</v>
       </c>
       <c r="P11">
@@ -5303,40 +6179,40 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>1.23E-2</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <v>3</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="22">
         <v>1.23E-2</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="22">
         <v>3</v>
       </c>
       <c r="P12">
@@ -5349,40 +6225,40 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>3.12</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="22">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="22">
         <v>3.12</v>
       </c>
       <c r="P13">
@@ -5395,40 +6271,40 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>3.23</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="22">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="22">
         <v>3.23</v>
       </c>
       <c r="P14">
@@ -5441,40 +6317,40 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>3.22</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="22">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="22">
         <v>3.22</v>
       </c>
       <c r="P15">
@@ -5487,40 +6363,40 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>2.96</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="22">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="22">
         <v>2.96</v>
       </c>
       <c r="P16">
@@ -5533,40 +6409,40 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>3</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="22">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="22">
         <v>3</v>
       </c>
       <c r="P17">
@@ -5579,40 +6455,40 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <v>3.23</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="22">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="22">
         <v>3.23</v>
       </c>
       <c r="P18">
@@ -5625,40 +6501,40 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="28">
         <v>3.1</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="22">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="22">
         <v>3.1</v>
       </c>
       <c r="P19">
@@ -5671,40 +6547,40 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <v>1.35E-2</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="28">
         <v>2.94</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="22">
         <v>1.35E-2</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="22">
         <v>2.94</v>
       </c>
       <c r="P20">
@@ -5717,40 +6593,40 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>1.2E-2</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <v>3</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="22">
         <v>1.2E-2</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="22">
         <v>3</v>
       </c>
       <c r="P21">
@@ -5763,40 +6639,40 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <v>1.18E-2</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="28">
         <v>3.02</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="22">
         <v>1.18E-2</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="22">
         <v>3.02</v>
       </c>
       <c r="P22">
@@ -5809,40 +6685,40 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <v>3.27</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="22">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="22">
         <v>3.27</v>
       </c>
       <c r="P23">
@@ -5855,40 +6731,40 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="28">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <v>3.32</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="22">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="22">
         <v>3.32</v>
       </c>
       <c r="P24">
@@ -5901,40 +6777,40 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>3.27</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="22">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="22">
         <v>3.27</v>
       </c>
       <c r="P25">
@@ -5947,40 +6823,40 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <v>0.01</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <v>3</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="22">
         <v>0.01</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="22">
         <v>3</v>
       </c>
       <c r="P26">
@@ -5993,40 +6869,40 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <v>3.02</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="22">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="22">
         <v>3.02</v>
       </c>
       <c r="P27">
@@ -6039,40 +6915,40 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <v>3.16</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="22">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="22">
         <v>3.16</v>
       </c>
       <c r="P28">
@@ -6085,40 +6961,40 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <v>3.49</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="22">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="22">
         <v>3.49</v>
       </c>
       <c r="P29">
@@ -6131,40 +7007,40 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <v>3.11</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="22">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="22">
         <v>3.11</v>
       </c>
       <c r="P30">
@@ -6177,40 +7053,40 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="28">
         <v>1.32E-2</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <v>3.09</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="22">
         <v>1.32E-2</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N31" s="22">
         <v>3.09</v>
       </c>
       <c r="P31">
@@ -6223,40 +7099,40 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <v>3.2</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="22">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="22">
         <v>3.2</v>
       </c>
       <c r="P32">
@@ -6279,7 +7155,7 @@
       <c r="C33" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>204</v>
       </c>
       <c r="E33" s="14">
@@ -6288,22 +7164,22 @@
       <c r="F33" s="14">
         <v>3</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="22">
         <v>1.23E-2</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="22">
         <v>3</v>
       </c>
       <c r="P33">
@@ -6316,17 +7192,17 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B34" t="str">
         <f>SUBSTITUTE(C34," ","_")</f>
         <v>Black_Crappie</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="37" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="14">
@@ -6335,22 +7211,22 @@
       <c r="F34" s="14">
         <v>3.1</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="L34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="22">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N34" s="22">
         <v>3.1</v>
       </c>
       <c r="P34">
@@ -6363,17 +7239,17 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>160</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ref="B35:B36" si="3">SUBSTITUTE(C35," ","_")</f>
         <v>White_Crappie</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="14">
@@ -6382,22 +7258,22 @@
       <c r="F35" s="14">
         <v>2.96</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K35" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="L35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="22">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="22">
         <v>2.96</v>
       </c>
       <c r="P35">
@@ -6417,34 +7293,34 @@
         <f t="shared" si="3"/>
         <v>White_Channel_Catfish</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>3.11</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="22">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N36" s="22">
         <v>3.11</v>
       </c>
       <c r="P36">
@@ -6462,7 +7338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E29D9D4-5733-4AFF-B6C1-AB0EDEDBC2D2}">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -6473,611 +7349,611 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="15">
         <v>3</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I2" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="23">
+      <c r="H2" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="15">
         <v>4</v>
       </c>
-      <c r="C3" s="23">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="23">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23">
+      <c r="H3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="23">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="23">
-        <v>1</v>
-      </c>
-      <c r="J4" s="23">
+      <c r="H4" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23" t="s">
+      <c r="C5" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="H5" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23">
+      <c r="H5" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="C6" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="23">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23">
+      <c r="H6" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1</v>
+      </c>
+      <c r="J6" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="C7" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="H7" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J7" s="23">
+      <c r="H7" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="C8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="23">
-        <v>1</v>
-      </c>
-      <c r="J8" s="23">
+      <c r="H8" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="C9" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="H9" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="J10" s="23">
+      <c r="H10" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="23">
-        <v>1</v>
-      </c>
-      <c r="J11" s="23">
+      <c r="H11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>0.1</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>0.3</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23" t="s">
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="H13" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="23">
-        <v>1</v>
-      </c>
-      <c r="J13" s="23">
+      <c r="H13" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="22">
+        <v>1</v>
+      </c>
+      <c r="J13" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="C14" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H14" s="23">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="H14" s="22">
+        <v>1</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <v>5</v>
       </c>
-      <c r="C15" s="23">
-        <v>1</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H15" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I15" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J15" s="23">
+      <c r="H15" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>4</v>
       </c>
-      <c r="C16" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E16" s="23">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23" t="s">
+      <c r="C16" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H16" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="23">
-        <v>1</v>
-      </c>
-      <c r="J16" s="23">
+      <c r="H16" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="22">
+        <v>1</v>
+      </c>
+      <c r="J16" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="15">
         <v>3</v>
       </c>
-      <c r="C17" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="C17" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="H17" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I17" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J17" s="23">
+      <c r="H17" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J17" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23" t="s">
+      <c r="C18" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="23">
-        <v>1</v>
-      </c>
-      <c r="J18" s="23">
+      <c r="H18" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="22">
+        <v>1</v>
+      </c>
+      <c r="J18" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
-      <c r="G19" s="23" t="s">
+      <c r="C19" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J19" s="23">
+      <c r="H19" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="15">
         <v>2</v>
       </c>
-      <c r="C20" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E20" s="23">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23" t="s">
+      <c r="C20" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="H20" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J20" s="23">
+      <c r="H20" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J20" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
       </c>
-      <c r="C21" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="C21" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="H21" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I21" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="J21" s="23">
+      <c r="H21" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="J21" s="22">
         <v>1</v>
       </c>
     </row>
@@ -7085,16 +7961,16 @@
       <c r="B22" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H22" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I22" s="23">
-        <v>1</v>
-      </c>
-      <c r="J22" s="23">
+      <c r="H22" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="22">
         <v>0.6</v>
       </c>
     </row>
@@ -7109,7 +7985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5951C83-EFC1-465B-86E1-C8BCA70ECC49}">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -7125,901 +8001,901 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="23">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K2" s="23">
-        <v>1</v>
-      </c>
-      <c r="L2" s="23">
+      <c r="J2" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2" s="22">
         <v>0.7</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="22">
         <v>0.7</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="22">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="23">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I3" s="23" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K3" s="23">
-        <v>1</v>
-      </c>
-      <c r="L3" s="23">
+      <c r="J3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="22">
+        <v>1</v>
+      </c>
+      <c r="L3" s="22">
         <v>0.3</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="22">
         <v>0.5</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="22">
         <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="23">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>0.4</v>
       </c>
-      <c r="K4" s="23">
-        <v>1</v>
-      </c>
-      <c r="L4" s="23">
+      <c r="K4" s="22">
+        <v>1</v>
+      </c>
+      <c r="L4" s="22">
         <v>0.8</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="22">
         <v>0.7</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="23" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>0.4</v>
       </c>
-      <c r="K5" s="23">
-        <v>1</v>
-      </c>
-      <c r="L5" s="23">
+      <c r="K5" s="22">
+        <v>1</v>
+      </c>
+      <c r="L5" s="22">
         <v>0.8</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="22">
         <v>0.7</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="23">
+      <c r="J6" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="22">
         <v>0.7</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>0.5</v>
       </c>
-      <c r="M6" s="23">
-        <v>1</v>
-      </c>
-      <c r="N6" s="23">
+      <c r="M6" s="22">
+        <v>1</v>
+      </c>
+      <c r="N6" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I7" s="23" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K7" s="23">
+      <c r="J7" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="22">
         <v>0.8</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="22">
         <v>0.5</v>
       </c>
-      <c r="M7" s="23">
-        <v>1</v>
-      </c>
-      <c r="N7" s="23">
+      <c r="M7" s="22">
+        <v>1</v>
+      </c>
+      <c r="N7" s="22">
         <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="23">
-        <v>1</v>
-      </c>
-      <c r="L8" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="M8" s="23">
+      <c r="J8" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="22">
         <v>0.9</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I9" s="23" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="23">
+      <c r="J9" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="22">
         <v>0.4</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <v>0.5</v>
       </c>
-      <c r="M9" s="23">
-        <v>1</v>
-      </c>
-      <c r="N9" s="23">
+      <c r="M9" s="22">
+        <v>1</v>
+      </c>
+      <c r="N9" s="22">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="23" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>0.4</v>
       </c>
-      <c r="K10" s="23">
-        <v>1</v>
-      </c>
-      <c r="L10" s="23">
+      <c r="K10" s="22">
+        <v>1</v>
+      </c>
+      <c r="L10" s="22">
         <v>0.7</v>
       </c>
-      <c r="M10" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="N10" s="23">
+      <c r="M10" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="K11" s="23">
-        <v>1</v>
-      </c>
-      <c r="L11" s="23">
+      <c r="J11" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1</v>
+      </c>
+      <c r="L11" s="22">
         <v>0.3</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="22">
         <v>0.5</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="22">
         <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="23">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>0.4</v>
       </c>
-      <c r="K12" s="23">
-        <v>1</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="M12" s="23">
+      <c r="K12" s="22">
+        <v>1</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="M12" s="22">
         <v>0.5</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="23">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="23" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>0.4</v>
       </c>
-      <c r="K13" s="23">
-        <v>1</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="M13" s="23">
+      <c r="K13" s="22">
+        <v>1</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="M13" s="22">
         <v>0.5</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="23">
+      <c r="J14" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="22">
         <v>0.4</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <v>0.5</v>
       </c>
-      <c r="M14" s="23">
-        <v>1</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="M14" s="22">
+        <v>1</v>
+      </c>
+      <c r="N14" s="22">
         <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="23">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F15" s="23">
-        <v>1</v>
-      </c>
-      <c r="G15" s="23">
-        <v>1</v>
-      </c>
-      <c r="I15" s="23" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="23">
-        <v>1</v>
-      </c>
-      <c r="K15" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="L15" s="23">
+      <c r="J15" s="22">
+        <v>1</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="22">
         <v>0.4</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="22">
         <v>0.5</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="22">
         <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E16" s="23">
-        <v>1</v>
-      </c>
-      <c r="F16" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G16" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I16" s="23" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K16" s="23">
+      <c r="J16" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="22">
         <v>0.3</v>
       </c>
-      <c r="L16" s="23">
-        <v>1</v>
-      </c>
-      <c r="M16" s="23">
+      <c r="L16" s="22">
+        <v>1</v>
+      </c>
+      <c r="M16" s="22">
         <v>0.8</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="22">
         <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G17" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I17" s="23" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>0.4</v>
       </c>
-      <c r="K17" s="23">
-        <v>1</v>
-      </c>
-      <c r="L17" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="M17" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="N17" s="23">
+      <c r="K17" s="22">
+        <v>1</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="M17" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I18" s="23" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K18" s="23">
-        <v>1</v>
-      </c>
-      <c r="L18" s="23">
+      <c r="J18" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="22">
+        <v>1</v>
+      </c>
+      <c r="L18" s="22">
         <v>0.3</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="22">
         <v>0.5</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23">
-        <v>1</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I19" s="23" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I19" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K19" s="23">
+      <c r="J19" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="22">
         <v>0.4</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <v>0.5</v>
       </c>
-      <c r="M19" s="23">
-        <v>1</v>
-      </c>
-      <c r="N19" s="23">
+      <c r="M19" s="22">
+        <v>1</v>
+      </c>
+      <c r="N19" s="22">
         <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="23">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F20" s="23">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23">
-        <v>1</v>
-      </c>
-      <c r="I20" s="23" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22">
+        <v>1</v>
+      </c>
+      <c r="I20" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="J20" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="23">
-        <v>1</v>
-      </c>
-      <c r="L20" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="M20" s="23">
+      <c r="J20" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="22">
+        <v>1</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="M20" s="22">
         <v>0.9</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="22">
         <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D21" s="23">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I21" s="23" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>0.4</v>
       </c>
-      <c r="K21" s="23">
-        <v>1</v>
-      </c>
-      <c r="L21" s="23">
+      <c r="K21" s="22">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22">
         <v>0.7</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="22">
         <v>0.7</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="D22" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="G22" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="I22" s="23" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>0.5</v>
       </c>
-      <c r="K22" s="23">
-        <v>1</v>
-      </c>
-      <c r="L22" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="M22" s="23">
+      <c r="K22" s="22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="M22" s="22">
         <v>0.5</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="22">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D23" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="E23" s="23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="G23" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="I23" s="23" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="K23" s="23">
+      <c r="J23" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="22">
         <v>0.4</v>
       </c>
-      <c r="L23" s="23">
-        <v>1</v>
-      </c>
-      <c r="M23" s="23">
+      <c r="L23" s="22">
+        <v>1</v>
+      </c>
+      <c r="M23" s="22">
         <v>0.7</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="22">
         <v>0.6</v>
       </c>
     </row>
@@ -8029,7 +8905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8794038-0AA3-426A-93D0-0BC5800C70AB}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -8093,7 +8969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE33782-CAA0-4684-8926-81E5DB89CF32}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -8107,7 +8983,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>97</v>
       </c>
       <c r="B1">
@@ -8120,7 +8996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01D557D-A3C4-4ADD-937C-11C7D374C244}">
   <dimension ref="A1:P23"/>
   <sheetViews>
@@ -8135,50 +9011,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8186,32 +9062,32 @@
       <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>17</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>26</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>18</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>26</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>17</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>26</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>101</v>
       </c>
       <c r="O2">
@@ -8227,32 +9103,32 @@
       <c r="A3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>19</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>27</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="22"/>
+      <c r="F3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <v>20</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>28</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>19</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>27</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="22" t="s">
         <v>101</v>
       </c>
       <c r="O3">
@@ -8268,32 +9144,32 @@
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>20</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>30</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="22"/>
+      <c r="F4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>20</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>30</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>20</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <v>30</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="22" t="s">
         <v>102</v>
       </c>
       <c r="O4">
@@ -8309,32 +9185,32 @@
       <c r="A5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>20</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>30</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="22"/>
+      <c r="F5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>20</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>30</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>20</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>30</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O5">
@@ -8350,32 +9226,32 @@
       <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>20</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>30</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="D6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>20</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>30</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>20</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>30</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O6">
@@ -8391,32 +9267,32 @@
       <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>22</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>32</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>22</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>32</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>22</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="22">
         <v>32</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="22" t="s">
         <v>101</v>
       </c>
       <c r="O7">
@@ -8432,32 +9308,32 @@
       <c r="A8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>20</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>30</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>20</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>30</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>20</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <v>30</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O8">
@@ -8473,32 +9349,32 @@
       <c r="A9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>18</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>26</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="F9" s="23" t="s">
+      <c r="D9" s="22"/>
+      <c r="F9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>18</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>26</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>18</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <v>26</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>101</v>
       </c>
       <c r="O9">
@@ -8514,32 +9390,32 @@
       <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>20</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>30</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="F10" s="23" t="s">
+      <c r="D10" s="22"/>
+      <c r="F10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>20</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>30</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>20</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="22">
         <v>30</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O10">
@@ -8555,32 +9431,32 @@
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>19</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>27</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>19</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>27</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>19</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <v>27</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="22" t="s">
         <v>101</v>
       </c>
       <c r="O11">
@@ -8596,32 +9472,32 @@
       <c r="A12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>20</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>30</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>20</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>30</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>20</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="22">
         <v>30</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O12">
@@ -8637,32 +9513,32 @@
       <c r="A13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>20</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>30</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="F13" s="23" t="s">
+      <c r="D13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>20</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>30</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <v>20</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="22">
         <v>30</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O13">
@@ -8678,32 +9554,32 @@
       <c r="A14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>18</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>26</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>18</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>26</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <v>18</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <v>26</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="22" t="s">
         <v>101</v>
       </c>
       <c r="O14">
@@ -8725,25 +9601,25 @@
       <c r="C15">
         <v>30</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>20</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>30</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="22">
         <v>20</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="22">
         <v>30</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O15">
@@ -8765,25 +9641,25 @@
       <c r="C16">
         <v>30</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>20</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>30</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <v>20</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="22">
         <v>30</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O16">
@@ -8805,25 +9681,25 @@
       <c r="C17">
         <v>24</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>10</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>22</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <v>12</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="22">
         <v>24</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="22" t="s">
         <v>105</v>
       </c>
       <c r="O17">
@@ -8845,25 +9721,25 @@
       <c r="C18">
         <v>30</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>20</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>30</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <v>20</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="22">
         <v>30</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O18">
@@ -8885,25 +9761,25 @@
       <c r="C19">
         <v>26</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>18</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>26</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="22">
         <v>18</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <v>26</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="22" t="s">
         <v>106</v>
       </c>
       <c r="O19">
@@ -8925,25 +9801,25 @@
       <c r="C20">
         <v>30</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>20</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>30</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="22">
         <v>20</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="22">
         <v>30</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="22" t="s">
         <v>107</v>
       </c>
       <c r="O20">
@@ -8965,25 +9841,25 @@
       <c r="C21">
         <v>30</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>20</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>30</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="22">
         <v>20</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="22">
         <v>30</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O21">
@@ -9005,25 +9881,25 @@
       <c r="C22">
         <v>26</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>18</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>26</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="22">
         <v>18</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="22">
         <v>26</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="22" t="s">
         <v>101</v>
       </c>
       <c r="O22">
@@ -9045,25 +9921,25 @@
       <c r="C23">
         <v>24</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>16</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>24</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="22">
         <v>16</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="22">
         <v>24</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="22" t="s">
         <v>101</v>
       </c>
       <c r="O23">
@@ -9081,7 +9957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21C553E-1D20-46CC-AA39-597E3DF401D4}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C6"/>

--- a/intermediateTables/PreCATFishesOrigin.xlsx
+++ b/intermediateTables/PreCATFishesOrigin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DocsHDD\FGame\中鱼\StatDemo\intermediateTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957C13AE-08C8-45F7-A767-B15213EECD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07845B5B-0B8C-4E2B-8A4A-79EBE71BC6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鱼种设计表" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="286">
   <si>
     <t>鱼种</t>
   </si>
@@ -980,6 +980,26 @@
   </si>
   <si>
     <t>3、4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水下结构体]开放水域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水下结构体]水草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水下结构体]石头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水下结构体]沉木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水下结构体]桥墩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1602,11 +1622,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1692,19 +1712,19 @@
         <v>207</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>8</v>
+        <v>284</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="AA1" s="12" t="s">
         <v>208</v>
@@ -5667,10 +5687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662D3F43-4BA3-41B8-992B-9DA5624B5380}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5680,7 +5700,7 @@
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>125</v>
       </c>
@@ -5699,26 +5719,8 @@
       <c r="F1" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>131</v>
       </c>
@@ -5737,34 +5739,8 @@
       <c r="F2" s="28">
         <v>3.11</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="22">
-        <v>1.24E-2</v>
-      </c>
-      <c r="N2" s="22">
-        <v>3.11</v>
-      </c>
-      <c r="P2">
-        <f>M2-E2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>N2-F2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>133</v>
       </c>
@@ -5783,34 +5759,8 @@
       <c r="F3" s="28">
         <v>3.05</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="22">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="N3" s="22">
-        <v>3.05</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P36" si="0">M3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q36" si="1">N3-F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>135</v>
       </c>
@@ -5829,34 +5779,8 @@
       <c r="F4" s="28">
         <v>3.28</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="22">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="N4" s="22">
-        <v>3.28</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>136</v>
       </c>
@@ -5875,34 +5799,8 @@
       <c r="F5" s="28">
         <v>3.24</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="22">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="N5" s="22">
-        <v>3.24</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>138</v>
       </c>
@@ -5921,34 +5819,8 @@
       <c r="F6" s="28">
         <v>3.11</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="22">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="N6" s="22">
-        <v>3.11</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>140</v>
       </c>
@@ -5967,34 +5839,8 @@
       <c r="F7" s="28">
         <v>3.29</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="22">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="N7" s="22">
-        <v>3.29</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>141</v>
       </c>
@@ -6013,34 +5859,8 @@
       <c r="F8" s="28">
         <v>3.14</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="22">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="N8" s="22">
-        <v>3.14</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>143</v>
       </c>
@@ -6059,34 +5879,8 @@
       <c r="F9" s="28">
         <v>3.28</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="22">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="N9" s="22">
-        <v>3.28</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>145</v>
       </c>
@@ -6105,34 +5899,8 @@
       <c r="F10" s="28">
         <v>3.2</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="M10" s="22">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="N10" s="22">
-        <v>3.2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>148</v>
       </c>
@@ -6151,34 +5919,8 @@
       <c r="F11" s="28">
         <v>3.01</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="22">
-        <v>1.01E-2</v>
-      </c>
-      <c r="N11" s="22">
-        <v>3.01</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>151</v>
       </c>
@@ -6197,34 +5939,8 @@
       <c r="F12" s="28">
         <v>3</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="22">
-        <v>1.23E-2</v>
-      </c>
-      <c r="N12" s="22">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>152</v>
       </c>
@@ -6243,34 +5959,8 @@
       <c r="F13" s="28">
         <v>3.12</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M13" s="22">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="N13" s="22">
-        <v>3.12</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>155</v>
       </c>
@@ -6289,34 +5979,8 @@
       <c r="F14" s="28">
         <v>3.23</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="22">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="N14" s="22">
-        <v>3.23</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>157</v>
       </c>
@@ -6335,34 +5999,8 @@
       <c r="F15" s="28">
         <v>3.22</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" s="22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N15" s="22">
-        <v>3.22</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>160</v>
       </c>
@@ -6381,34 +6019,8 @@
       <c r="F16" s="28">
         <v>2.96</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="M16" s="22">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="N16" s="22">
-        <v>2.96</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>163</v>
       </c>
@@ -6427,34 +6039,8 @@
       <c r="F17" s="28">
         <v>3</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="22">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="N17" s="22">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>165</v>
       </c>
@@ -6473,34 +6059,8 @@
       <c r="F18" s="28">
         <v>3.23</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="22">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="N18" s="22">
-        <v>3.23</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>167</v>
       </c>
@@ -6519,34 +6079,8 @@
       <c r="F19" s="28">
         <v>3.1</v>
       </c>
-      <c r="I19" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="22">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="N19" s="22">
-        <v>3.1</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>169</v>
       </c>
@@ -6565,34 +6099,8 @@
       <c r="F20" s="28">
         <v>2.94</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="22">
-        <v>1.35E-2</v>
-      </c>
-      <c r="N20" s="22">
-        <v>2.94</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>171</v>
       </c>
@@ -6611,34 +6119,8 @@
       <c r="F21" s="28">
         <v>3</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="22">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N21" s="22">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>173</v>
       </c>
@@ -6657,34 +6139,8 @@
       <c r="F22" s="28">
         <v>3.02</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="22">
-        <v>1.18E-2</v>
-      </c>
-      <c r="N22" s="22">
-        <v>3.02</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>175</v>
       </c>
@@ -6703,34 +6159,8 @@
       <c r="F23" s="28">
         <v>3.27</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="M23" s="22">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="N23" s="22">
-        <v>3.27</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>178</v>
       </c>
@@ -6749,34 +6179,8 @@
       <c r="F24" s="28">
         <v>3.32</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="M24" s="22">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="N24" s="22">
-        <v>3.32</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>180</v>
       </c>
@@ -6795,34 +6199,8 @@
       <c r="F25" s="28">
         <v>3.27</v>
       </c>
-      <c r="I25" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M25" s="22">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="N25" s="22">
-        <v>3.27</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>181</v>
       </c>
@@ -6841,34 +6219,8 @@
       <c r="F26" s="28">
         <v>3</v>
       </c>
-      <c r="I26" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="M26" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="N26" s="22">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>184</v>
       </c>
@@ -6887,34 +6239,8 @@
       <c r="F27" s="28">
         <v>3.02</v>
       </c>
-      <c r="I27" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="M27" s="22">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="N27" s="22">
-        <v>3.02</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>187</v>
       </c>
@@ -6933,34 +6259,8 @@
       <c r="F28" s="28">
         <v>3.16</v>
       </c>
-      <c r="I28" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="22">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="N28" s="22">
-        <v>3.16</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>189</v>
       </c>
@@ -6979,34 +6279,8 @@
       <c r="F29" s="28">
         <v>3.49</v>
       </c>
-      <c r="I29" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="M29" s="22">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="N29" s="22">
-        <v>3.49</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>192</v>
       </c>
@@ -7025,34 +6299,8 @@
       <c r="F30" s="28">
         <v>3.11</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="M30" s="22">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="N30" s="22">
-        <v>3.11</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>194</v>
       </c>
@@ -7071,34 +6319,8 @@
       <c r="F31" s="28">
         <v>3.09</v>
       </c>
-      <c r="I31" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="22">
-        <v>1.32E-2</v>
-      </c>
-      <c r="N31" s="22">
-        <v>3.09</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>196</v>
       </c>
@@ -7117,39 +6339,13 @@
       <c r="F32" s="40">
         <v>3.2</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M32" s="22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N32" s="22">
-        <v>3.2</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" ref="B33" si="2">SUBSTITUTE(C33," ","_")</f>
+        <f t="shared" ref="B33" si="0">SUBSTITUTE(C33," ","_")</f>
         <v>Tench</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -7164,34 +6360,8 @@
       <c r="F33" s="14">
         <v>3</v>
       </c>
-      <c r="I33" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" s="22">
-        <v>1.23E-2</v>
-      </c>
-      <c r="N33" s="22">
-        <v>3</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
         <v>167</v>
       </c>
@@ -7211,39 +6381,13 @@
       <c r="F34" s="14">
         <v>3.1</v>
       </c>
-      <c r="I34" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="22">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="N34" s="22">
-        <v>3.1</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>160</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" ref="B35:B36" si="3">SUBSTITUTE(C35," ","_")</f>
+        <f t="shared" ref="B35:B36" si="1">SUBSTITUTE(C35," ","_")</f>
         <v>White_Crappie</v>
       </c>
       <c r="C35" s="34" t="s">
@@ -7258,39 +6402,13 @@
       <c r="F35" s="14">
         <v>2.96</v>
       </c>
-      <c r="I35" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" s="22">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="N35" s="22">
-        <v>2.96</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>206</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>White_Channel_Catfish</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -7304,32 +6422,6 @@
       </c>
       <c r="F36" s="22">
         <v>3.11</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" s="22">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="N36" s="22">
-        <v>3.11</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/intermediateTables/PreCATFishesOrigin.xlsx
+++ b/intermediateTables/PreCATFishesOrigin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DocsHDD\FGame\中鱼\StatDemo\intermediateTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F682BFB-5682-49FF-80E9-8F197CAF89DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4319F71A-6D82-4D7A-91BE-FECB18A02B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="41685" windowHeight="18390" tabRatio="816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="2490" windowWidth="41685" windowHeight="18390" tabRatio="816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鱼种设计表" sheetId="1" r:id="rId1"/>
@@ -2179,7 +2179,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
